--- a/2018elections/20180115-mnpoll-russia/builds/development/data/maindata.xlsx
+++ b/2018elections/20180115-mnpoll-russia/builds/development/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6940" yWindow="3180" windowWidth="25600" windowHeight="14980" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="6940" yWindow="3180" windowWidth="25600" windowHeight="14980" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="polls" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3223" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3297" uniqueCount="144">
   <si>
     <t>year</t>
   </si>
@@ -249,49 +249,10 @@
     <t>Do you approve or disapprove of Al Franken's job performance as U.S. senator?</t>
   </si>
   <si>
-    <t>Do you approve or disapprove of Amy Klobuchar’s job performance as U.S. Senator?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPROVE       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   DISAPPROVE     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     UNDECIDED</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
     <t>REGION</t>
-  </si>
-  <si>
-    <t>APPROVE</t>
-  </si>
-  <si>
-    <t>DISAPPROVE</t>
-  </si>
-  <si>
-    <t>UNDECIDED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hennepin/Ramsey  </t>
-  </si>
-  <si>
-    <t>Rest of Twin Cities suburbs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Southern Minnesota       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northern Minnesota       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GENDER </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGE </t>
   </si>
   <si>
     <t>18-34</t>
@@ -316,9 +277,6 @@
   </si>
   <si>
     <t>PARTY ID</t>
-  </si>
-  <si>
-    <t>Do you approve or disapprove of Al Franken’s job performance as U.S. Senator?</t>
   </si>
   <si>
     <t>Poll conducted by Mason-Dixon Polling and Strategy on behalf of the Star Tribune</t>
@@ -431,12 +389,78 @@
   <si>
     <t>Percentage who answered with the twelfth option</t>
   </si>
+  <si>
+    <t>QUESTION: How concerned are you about Russian interference in U.S. elections?  Are you very concerned, somewhat concerned, not too concerned or not at all concerned?</t>
+  </si>
+  <si>
+    <t>VERY</t>
+  </si>
+  <si>
+    <t>SOMEWHAT</t>
+  </si>
+  <si>
+    <t>NOT TOO</t>
+  </si>
+  <si>
+    <t>NOT</t>
+  </si>
+  <si>
+    <t>NOT SURE</t>
+  </si>
+  <si>
+    <t>Rest of Metro Suburbs</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>GENDER</t>
+  </si>
+  <si>
+    <t>AGE</t>
+  </si>
+  <si>
+    <t>Democrats</t>
+  </si>
+  <si>
+    <t>Republicans</t>
+  </si>
+  <si>
+    <t>Independents</t>
+  </si>
+  <si>
+    <t>EDUCATION</t>
+  </si>
+  <si>
+    <t>High School/Some College</t>
+  </si>
+  <si>
+    <t>College Graduate</t>
+  </si>
+  <si>
+    <t>QUESTION:  Do you think people connected to Donald Trump’s presidential campaign did or did not engage in improper coordination with Russian agents who tried to interfere in the U.S. election?</t>
+  </si>
+  <si>
+    <t>DID</t>
+  </si>
+  <si>
+    <t>DID NOT</t>
+  </si>
+  <si>
+    <t>QUESTION: To date, do you think Special Counsel Robert Mueller’s investigation into possible collusion with Russia during the 2016 election has been fair and impartial, or do you think it has been unfair and biased against President Trump?</t>
+  </si>
+  <si>
+    <t>FAIR</t>
+  </si>
+  <si>
+    <t>UNFAIR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -463,22 +487,17 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
+      <sz val="10.5"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -498,7 +517,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="120">
+  <cellStyleXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -618,23 +637,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="119" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="120">
+  <cellStyles count="119">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -754,7 +780,6 @@
     <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="119" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -12375,799 +12400,1852 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" ht="14">
+      <c r="A1" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="7"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="7"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="7"/>
+      <c r="B4" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="7"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="8"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="8"/>
-      <c r="B3" s="7" t="s">
+      <c r="B6" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.17</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.23</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.26</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="7"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="B8" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="7"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0.47</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.16</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.21</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0.31</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.16</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.16</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.36</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.26</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.26</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0.23</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.16</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="7"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="7"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.21</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.19</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0.19</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="7"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="7"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="B22" s="10">
+        <v>0.37</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0.23</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0.18</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="7" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="8"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" ht="15">
-      <c r="A5" s="6" t="s">
+      <c r="B23" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="7">
-        <v>0.72</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B24" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="10">
+        <v>0.32</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0.17</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="F25" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="7"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="10">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C29" s="10">
+        <v>0.21</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0.18</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="F29" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="10">
+        <v>0.38</v>
+      </c>
+      <c r="C30" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0.21</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="7"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="7"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="10">
+        <v>0.66</v>
+      </c>
+      <c r="C34" s="10">
+        <v>0.23</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="F34" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="C35" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0.36</v>
+      </c>
+      <c r="E35" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="F35" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="10">
+        <v>0.27</v>
+      </c>
+      <c r="C36" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0.27</v>
+      </c>
+      <c r="E36" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="F36" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="7"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="7"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="C40" s="10">
+        <v>0.16</v>
+      </c>
+      <c r="D40" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="E40" s="10">
+        <v>0.24</v>
+      </c>
+      <c r="F40" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="C41" s="10">
+        <v>0.18</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0.21</v>
+      </c>
+      <c r="E41" s="10">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="7"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" ht="14">
+      <c r="A43" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+    </row>
+    <row r="44" spans="1:7" ht="14">
+      <c r="A44" s="11"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="7"/>
+      <c r="B45" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="7"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="10">
+        <v>0.43</v>
+      </c>
+      <c r="C47" s="10">
+        <v>0.44</v>
+      </c>
+      <c r="D47" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="7"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="7"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="10">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C51" s="10">
+        <v>0.26</v>
+      </c>
+      <c r="D51" s="10">
+        <v>0.17</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="C52" s="10">
+        <v>0.46</v>
+      </c>
+      <c r="D52" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="C53" s="10">
+        <v>0.52</v>
+      </c>
+      <c r="D53" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="10">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C54" s="10">
+        <v>0.62</v>
+      </c>
+      <c r="D54" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="7"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="7"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="C58" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D58" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" s="10">
+        <v>0.51</v>
+      </c>
+      <c r="C59" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="D59" s="10">
+        <v>0.16</v>
+      </c>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="7"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="7"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="10">
+        <v>0.52</v>
+      </c>
+      <c r="C63" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="D63" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="10">
+        <v>0.44</v>
+      </c>
+      <c r="C64" s="10">
+        <v>0.44</v>
+      </c>
+      <c r="D64" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="C65" s="10">
+        <v>0.49</v>
+      </c>
+      <c r="D65" s="10">
+        <v>0.16</v>
+      </c>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" s="10">
+        <v>0.44</v>
+      </c>
+      <c r="C66" s="10">
+        <v>0.47</v>
+      </c>
+      <c r="D66" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="7"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="7"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" s="10">
+        <v>0.43</v>
+      </c>
+      <c r="C70" s="10">
+        <v>0.44</v>
+      </c>
+      <c r="D70" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" s="10">
+        <v>0.43</v>
+      </c>
+      <c r="C71" s="10">
+        <v>0.43</v>
+      </c>
+      <c r="D71" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="7"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="7"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B75" s="10">
+        <v>0.83</v>
+      </c>
+      <c r="C75" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="D75" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B76" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="C76" s="10">
+        <v>0.77</v>
+      </c>
+      <c r="D76" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B77" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="C77" s="10">
+        <v>0.43</v>
+      </c>
+      <c r="D77" s="10">
+        <v>0.24</v>
+      </c>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="7"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="7"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B81" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="C81" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D81" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B82" s="10">
+        <v>0.46</v>
+      </c>
+      <c r="C82" s="10">
+        <v>0.38</v>
+      </c>
+      <c r="D82" s="10">
+        <v>0.16</v>
+      </c>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="7"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="7"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+    </row>
+    <row r="85" spans="1:7" ht="14">
+      <c r="A85" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="7"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="7"/>
+      <c r="B87" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="7"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B89" s="10">
+        <v>0.51</v>
+      </c>
+      <c r="C89" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="D89" s="10">
+        <v>0.16</v>
+      </c>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="7"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="7"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B93" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="C93" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="D93" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B94" s="10">
+        <v>0.53</v>
+      </c>
+      <c r="C94" s="10">
+        <v>0.34</v>
+      </c>
+      <c r="D94" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B95" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="C95" s="10">
+        <v>0.37</v>
+      </c>
+      <c r="D95" s="10">
+        <v>0.18</v>
+      </c>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B96" s="10">
+        <v>0.42</v>
+      </c>
+      <c r="C96" s="10">
+        <v>0.48</v>
+      </c>
+      <c r="D96" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="7"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="7"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B100" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="C100" s="10">
+        <v>0.42</v>
+      </c>
+      <c r="D100" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B101" s="10">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C101" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="D101" s="10">
+        <v>0.18</v>
+      </c>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="7"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="7"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B105" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C105" s="10">
+        <v>0.23</v>
+      </c>
+      <c r="D105" s="10">
+        <v>0.22</v>
+      </c>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B106" s="10">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C106" s="10">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D106" s="10">
+        <v>0.16</v>
+      </c>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B107" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="C107" s="10">
+        <v>0.42</v>
+      </c>
+      <c r="D107" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B108" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C108" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="D108" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="7"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="7"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B112" s="10">
+        <v>0.49</v>
+      </c>
+      <c r="C112" s="10">
+        <v>0.36</v>
+      </c>
+      <c r="D112" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B113" s="10">
+        <v>0.54</v>
+      </c>
+      <c r="C113" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="D113" s="10">
+        <v>0.16</v>
+      </c>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="7"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="7"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B117" s="10">
+        <v>0.89</v>
+      </c>
+      <c r="C117" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="D117" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B118" s="10">
+        <v>0.16</v>
+      </c>
+      <c r="C118" s="10">
+        <v>0.63</v>
+      </c>
+      <c r="D118" s="10">
+        <v>0.21</v>
+      </c>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B119" s="10">
+        <v>0.48</v>
+      </c>
+      <c r="C119" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="D119" s="10">
         <v>0.19</v>
       </c>
-      <c r="D5" s="7">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="8"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" ht="15">
-      <c r="A7" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="8"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="7">
-        <v>0.82</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="D9" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="7">
-        <v>0.69</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.21</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="7">
-        <v>0.74</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0.17</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="7">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" ht="15">
-      <c r="A14" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="8"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="7">
-        <v>0.68</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0.21</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0.17</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="8"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" ht="15">
-      <c r="A19" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="7">
-        <v>0.71</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0.17</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0.17</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="C23" s="7">
-        <v>0.22</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" s="7">
-        <v>0.74</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="8"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="1:4" ht="15">
-      <c r="A26" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="8"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="7">
-        <v>0.67</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="D29" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="8"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="1:4" ht="15">
-      <c r="A31" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="8"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="7">
-        <v>0.95</v>
-      </c>
-      <c r="C33" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="D33" s="7">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="7">
-        <v>0.51</v>
-      </c>
-      <c r="C34" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="D34" s="7">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="C35" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="D35" s="7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="8"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:4" ht="15">
-      <c r="A37" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="8"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="8"/>
-      <c r="B39" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="8"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-    </row>
-    <row r="41" spans="1:4" ht="15">
-      <c r="A41" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" s="7">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="C41" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="D41" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="8"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-    </row>
-    <row r="43" spans="1:4" ht="15">
-      <c r="A43" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="8"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="7">
-        <v>0.71</v>
-      </c>
-      <c r="C45" s="7">
-        <v>0.24</v>
-      </c>
-      <c r="D45" s="7">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B46" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="C46" s="7">
-        <v>0.39</v>
-      </c>
-      <c r="D46" s="7">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B47" s="7">
-        <v>0.53</v>
-      </c>
-      <c r="C47" s="7">
-        <v>0.39</v>
-      </c>
-      <c r="D47" s="7">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B48" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="C48" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="D48" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="8"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-    </row>
-    <row r="50" spans="1:4" ht="15">
-      <c r="A50" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="8"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B52" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="C52" s="7">
-        <v>0.39</v>
-      </c>
-      <c r="D52" s="7">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B53" s="7">
-        <v>0.63</v>
-      </c>
-      <c r="C53" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D53" s="7">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="8"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-    </row>
-    <row r="55" spans="1:4" ht="15">
-      <c r="A55" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="8"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B57" s="7">
-        <v>0.64</v>
-      </c>
-      <c r="C57" s="7">
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="7"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="7"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B123" s="10">
+        <v>0.44</v>
+      </c>
+      <c r="C123" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="D123" s="10">
+        <v>0.16</v>
+      </c>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B124" s="10">
+        <v>0.59</v>
+      </c>
+      <c r="C124" s="10">
         <v>0.25</v>
       </c>
-      <c r="D57" s="7">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B58" s="7">
-        <v>0.61</v>
-      </c>
-      <c r="C58" s="7">
-        <v>0.34</v>
-      </c>
-      <c r="D58" s="7">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B59" s="7">
-        <v>0.54</v>
-      </c>
-      <c r="C59" s="7">
-        <v>0.37</v>
-      </c>
-      <c r="D59" s="7">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B60" s="7">
-        <v>0.54</v>
-      </c>
-      <c r="C60" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="D60" s="7">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="8"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-    </row>
-    <row r="62" spans="1:4" ht="15">
-      <c r="A62" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="8"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B64" s="7">
-        <v>0.59</v>
-      </c>
-      <c r="C64" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="D64" s="7">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B65" s="7">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C65" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="D65" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="8"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-    </row>
-    <row r="67" spans="1:4" ht="15">
-      <c r="A67" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="8"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B69" s="7">
-        <v>0.88</v>
-      </c>
-      <c r="C69" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D69" s="7">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B70" s="7">
-        <v>0.26</v>
-      </c>
-      <c r="C70" s="7">
-        <v>0.65</v>
-      </c>
-      <c r="D70" s="7">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B71" s="7">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C71" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="D71" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="8"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
+      <c r="D124" s="10">
+        <v>0.16</v>
+      </c>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="7"/>
+      <c r="B125" s="9"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="7"/>
+      <c r="B126" s="9"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A85:D85"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -13192,40 +14270,40 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="9" customFormat="1">
-      <c r="A6" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>102</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="6" customFormat="1">
+      <c r="A6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -13242,15 +14320,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
-        <v>105</v>
+      <c r="A2" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -13258,7 +14336,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -13266,7 +14344,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -13274,7 +14352,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -13282,7 +14360,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -13290,7 +14368,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -13298,7 +14376,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -13306,7 +14384,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -13314,7 +14392,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -13322,7 +14400,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -13330,7 +14408,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -13338,7 +14416,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -13346,7 +14424,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -13354,7 +14432,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -13362,7 +14440,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -13370,7 +14448,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -13378,7 +14456,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -13386,7 +14464,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -13394,7 +14472,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -13402,7 +14480,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -13410,7 +14488,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -13418,7 +14496,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -13426,7 +14504,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -13434,7 +14512,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -13442,7 +14520,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -13450,7 +14528,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -13458,7 +14536,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -13466,7 +14544,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -13474,7 +14552,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
